--- a/excel_queries/V-velociraptor App data presentation.xlsx
+++ b/excel_queries/V-velociraptor App data presentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\nss-data-analytics\1 projects\app-trader-the-v-lookup-velociraptors\excel_queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDAE695-EF4B-459E-946D-7E9BAB6D6680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77314282-7829-4FAF-844A-B96D8C0CB040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71FCB696-DBD6-4B0C-AE3C-F319DF21172B}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>App Name</t>
   </si>
@@ -40,45 +37,9 @@
     <t>App Genre</t>
   </si>
   <si>
-    <t>ASOS</t>
-  </si>
-  <si>
-    <t>Shopping</t>
-  </si>
-  <si>
-    <t>Domino's Pizza USA</t>
-  </si>
-  <si>
     <t>Food &amp; Drink</t>
   </si>
   <si>
-    <t>PewDiePie's Tuber Simulator</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Egg, Inc.</t>
-  </si>
-  <si>
-    <t>The Guardian</t>
-  </si>
-  <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>Cytus</t>
-  </si>
-  <si>
-    <t>Geometry Dash Lite</t>
-  </si>
-  <si>
-    <t>Fernanfloo</t>
-  </si>
-  <si>
-    <t>Clash of Clans</t>
-  </si>
-  <si>
     <t>Potential Profit</t>
   </si>
   <si>
@@ -94,9 +55,6 @@
     <t>Top 10 Immediate App Investment Recommendations</t>
   </si>
   <si>
-    <t>Clash Royale</t>
-  </si>
-  <si>
     <t>Genre</t>
   </si>
   <si>
@@ -191,18 +149,118 @@
   </si>
   <si>
     <t>Board;Brain Games Games</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Five Nights at Freddy's 3</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Teen</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Everyone 10+</t>
+  </si>
+  <si>
+    <t>Health &amp; Fitness</t>
+  </si>
+  <si>
+    <t>play_name</t>
+  </si>
+  <si>
+    <t>investment_cost</t>
+  </si>
+  <si>
+    <t>avg_rating</t>
+  </si>
+  <si>
+    <t>potential_profit</t>
+  </si>
+  <si>
+    <t>play_installations</t>
+  </si>
+  <si>
+    <t>play_genre</t>
+  </si>
+  <si>
+    <t>app_genre</t>
+  </si>
+  <si>
+    <t>play_content</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t>Army of Heroes</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>DoorDash - Food Delivery</t>
+  </si>
+  <si>
+    <t>Gear.Club - True Racing</t>
+  </si>
+  <si>
+    <t>OK K.O.! Lakewood Plaza Turbo</t>
+  </si>
+  <si>
+    <t>Seven - 7 Minute Workout Training Challenge</t>
+  </si>
+  <si>
+    <t>Endless Ducker</t>
+  </si>
+  <si>
+    <t>Five Nights at Freddy's 2</t>
+  </si>
+  <si>
+    <t>Hitman GO</t>
+  </si>
+  <si>
+    <t>Get 'Em</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Action;Action &amp; Adventure</t>
+  </si>
+  <si>
+    <t>HOT NOW - GAMES!</t>
+  </si>
+  <si>
+    <t>WHAT'S NEXT?</t>
+  </si>
+  <si>
+    <t>EXERCISE APPS!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +296,57 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,7 +451,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,10 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -375,10 +480,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -390,14 +495,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -722,7 +850,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Total User Reviews - App Store and Play Store</a:t>
+                  <a:t>Number of Total User Reviews - Apple Store and Play Store</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -731,7 +859,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.23502646544181982"/>
+              <c:x val="0.10237630208333333"/>
               <c:y val="0.89256926217556143"/>
             </c:manualLayout>
           </c:layout>
@@ -2392,618 +2520,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>518160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="ASOS - Home | Facebook">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F3D82D-A3E1-40E8-BD66-4B35EDC6402E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6416040" y="3848100"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>322</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Download Domino&amp;#39;s Pizza Logo in SVG Vector or PNG File Format - Logo.wine">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A635E4-BDE7-4002-88EF-2EC7F3BC1057}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="21128" r="18778"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6401122" y="3985260"/>
-          <a:ext cx="281618" cy="312420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>41580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="PewDiePie&amp;#39;s Tuber Simulator | Jacksepticeye Wiki | Fandom">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA38055-CF8F-49AE-AF60-28769E68DEF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6423660" y="4285920"/>
-          <a:ext cx="205740" cy="118440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Egg, Inc. - Wikipedia">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FEA589-6727-4820-BC2A-04F25829E7D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6423660" y="4434840"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="The Guardian · GitHub">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96550D0-D16D-4CD8-B127-EA0D906B39DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6438900" y="4625340"/>
-          <a:ext cx="160020" cy="160020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>182682</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>26541</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="Did you know Cytus? | Cytus Wiki | Fandom">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8436837-D40C-42CD-B263-91CFB532B9C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="2322" t="12500" r="60448" b="8036"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6416040" y="4792782"/>
-          <a:ext cx="232281" cy="198318"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="Geometry Dash on the App Store">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DF707C-FF66-4B9B-AF53-F8C0B24E4B7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="30933" t="13390" r="30606" b="13396"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6423660" y="4983481"/>
-          <a:ext cx="182880" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>32412</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198119</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="Fernanfloo on the App Store">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B6CF74-12C8-49D3-A94E-86721BE59D0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="31458" t="14298" r="31457" b="14284"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6433212" y="5166359"/>
-          <a:ext cx="165707" cy="167641"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>30398</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="Coc Icon #359493 - Free Icons Library">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604FE818-C04F-4023-8812-0C2FF5D40C23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="8061" r="6753"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6271178" y="5311140"/>
-          <a:ext cx="182961" cy="175259"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="Clash Royale - Apps on Google Play">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83957B03-F64D-4EDD-9E6E-A7D2DDB00E67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6263640" y="5486400"/>
-          <a:ext cx="182880" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>373380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3024,54 +2552,10 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>984991</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>125616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1135380</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A483941-A4B6-403E-B408-F53917316F40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9847051" y="125616"/>
-          <a:ext cx="4387109" cy="2640444"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3101,7 +2585,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:duotone>
             <a:schemeClr val="accent6">
               <a:shade val="45000"/>
@@ -3142,55 +2626,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>281939</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2C52BD-1A0D-4DF7-82D5-2FC5B3651B5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4183379" y="101470"/>
-          <a:ext cx="3970021" cy="2649349"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3216,7 +2651,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3234,6 +2669,779 @@
             <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>891539</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1141872</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>86937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADE2BB5-FEF2-4FAA-81D2-D1B1C86219B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753599" y="91441"/>
+          <a:ext cx="4487053" cy="2700596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="✓[Updated] Army of Heroes app not working (down), white screen / black  (blank) screen, loading problems (2021)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F86EF9-9D2C-4186-BF38-513D065360FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6629400" y="3855720"/>
+          <a:ext cx="175260" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="DoorDash - Home | Facebook">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2BC85D-E755-4154-BA37-3038BA2499BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="4046220"/>
+          <a:ext cx="175260" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="Gear.Club: True Racing | Gear.Club Wiki | Fandom">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E1E33A-9FFC-48A0-BBD5-A86472C328BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6629400" y="4244340"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="OK K.O.! Lakewood Plaza Turbo | OK K.O.! Wiki | Fandom">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8911B9-C0D4-4A1D-83C8-0100344C86AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6637020" y="4408032"/>
+          <a:ext cx="137160" cy="171587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="Seven - 7 Minute Workout - Apps on Google Play">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E1BF1F-B575-4633-8E11-13DCB5ABA7F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6637020" y="4617720"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="Endless Ducker - Apps on Google Play">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAD39AA-F172-40A1-9F39-4ADBA24F1B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6637020" y="4785360"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="Amazon.com: Five Nights at Freddy's 2 : Apps &amp; Games">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442ACF3B-F457-4B3F-BDA6-A02E3329E69F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6629400" y="4945380"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="Five Nights at Freddy's 3 - Apps on Google Play">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FD7F91-E187-4767-82A7-3BF0516ACE97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6637020" y="5501640"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="Get 'Em - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45FAFD3-A763-451D-B1C2-665F0A49607E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6629400" y="5318760"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="Hitman Go - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A233776C-E732-4598-8A0A-A4B2DE0EFF56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6629400" y="5128260"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>418288</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="Girl Running Svg Clip Arts - Running Clipart Free, HD Png Download ,  Transparent Png Image - PNGitem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E422058-030A-42FD-BB10-61E3729C32E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId16">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="38605" y1="11869" x2="38605" y2="11869"/>
+                      <a14:foregroundMark x1="49884" y1="29822" x2="49884" y2="29822"/>
+                      <a14:foregroundMark x1="36512" y1="37389" x2="36512" y2="37389"/>
+                      <a14:foregroundMark x1="60349" y1="63798" x2="60349" y2="63798"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4319728" y="3874186"/>
+          <a:ext cx="2172512" cy="1703654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1356360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B815322E-E225-4544-A4F0-71EE9FFAC400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4183380" y="91440"/>
+          <a:ext cx="3992880" cy="2664604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3280,326 +3488,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="dashboard"/>
-      <sheetName val="profits_genre"/>
-      <sheetName val="erin_code"/>
-      <sheetName val="reviews_vs_longevity"/>
-      <sheetName val="genre_stuff"/>
-      <sheetName val="genre_count"/>
-      <sheetName val="top_apps"/>
-      <sheetName val="final full join"/>
-      <sheetName val="inner_join_window (2)"/>
-      <sheetName val="full_join_combine_columns"/>
-      <sheetName val="play_store_apps_query"/>
-      <sheetName val="ipone_purchase_cost"/>
-      <sheetName val="avg_investment"/>
-      <sheetName val="avg_longevity"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>row_number</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>play_price</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>app_price</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>investment_cost</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>avg_rating</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>potential_profit</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>ASOS</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ASOS</v>
-          </cell>
-          <cell r="C2">
-            <v>1</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>20000</v>
-          </cell>
-          <cell r="G2">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="H2">
-            <v>1146400</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Domino's Pizza USA</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Domino's Pizza USA</v>
-          </cell>
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>20000</v>
-          </cell>
-          <cell r="G3">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="H3">
-            <v>1146400</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>PewDiePie's Tuber Simulator</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>PewDiePie's Tuber Simulator</v>
-          </cell>
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-          <cell r="F4">
-            <v>20000</v>
-          </cell>
-          <cell r="G4">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="H4">
-            <v>1146400</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Egg, Inc.</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Egg, Inc.</v>
-          </cell>
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="F5">
-            <v>20000</v>
-          </cell>
-          <cell r="G5">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="H5">
-            <v>1146400</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>The Guardian</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>The Guardian</v>
-          </cell>
-          <cell r="C6">
-            <v>1</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="E6">
-            <v>0</v>
-          </cell>
-          <cell r="F6">
-            <v>20000</v>
-          </cell>
-          <cell r="G6">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="H6">
-            <v>1146400</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Cytus</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Cytus</v>
-          </cell>
-          <cell r="C7">
-            <v>1</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>1.99</v>
-          </cell>
-          <cell r="F7">
-            <v>29900</v>
-          </cell>
-          <cell r="G7">
-            <v>4.9000000000000004</v>
-          </cell>
-          <cell r="H7">
-            <v>1136500</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Geometry Dash Lite</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Geometry Dash Lite</v>
-          </cell>
-          <cell r="C8">
-            <v>1</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>0</v>
-          </cell>
-          <cell r="F8">
-            <v>20000</v>
-          </cell>
-          <cell r="G8">
-            <v>4.8</v>
-          </cell>
-          <cell r="H8">
-            <v>1124800</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Fernanfloo</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Fernanfloo</v>
-          </cell>
-          <cell r="C9">
-            <v>1</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-          <cell r="F9">
-            <v>20000</v>
-          </cell>
-          <cell r="G9">
-            <v>4.7</v>
-          </cell>
-          <cell r="H9">
-            <v>1103200</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>H*nest Meditation</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>H*nest Meditation</v>
-          </cell>
-          <cell r="C10">
-            <v>1</v>
-          </cell>
-          <cell r="D10">
-            <v>1.99</v>
-          </cell>
-          <cell r="E10">
-            <v>1.99</v>
-          </cell>
-          <cell r="F10">
-            <v>39800</v>
-          </cell>
-          <cell r="G10">
-            <v>4.7</v>
-          </cell>
-          <cell r="H10">
-            <v>1083400</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Fuel RewardsÂ® program</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Fuel RewardsÂ® program</v>
-          </cell>
-          <cell r="C11">
-            <v>1</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-          <cell r="F11">
-            <v>20000</v>
-          </cell>
-          <cell r="G11">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="H11">
-            <v>1081600</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3901,7 +3789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A2B63-BB1F-4C1D-B580-E11D0211B936}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3931,368 +3821,386 @@
     </row>
     <row r="2" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="6"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="15"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="26"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="26"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="26"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="26"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="26"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="26"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="26"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="6"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
-    </row>
-    <row r="17" spans="7:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="G17"/>
+      <c r="F16" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="F17" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="33"/>
       <c r="H17"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="14" t="s">
+      <c r="K17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" s="4"/>
       <c r="J18" s="6" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="K18" s="5">
-        <v>1146400</v>
-      </c>
-      <c r="L18" s="16">
-        <v>10000000</v>
-      </c>
-      <c r="M18" s="17">
-        <v>191523</v>
+        <v>460000</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="M18" s="15">
+        <v>86250</v>
       </c>
       <c r="N18" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I19" s="4"/>
       <c r="J19" s="6" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="K19" s="5">
-        <v>1146400</v>
-      </c>
-      <c r="L19" s="16">
-        <v>10000000</v>
-      </c>
-      <c r="M19" s="17">
-        <v>1291559</v>
+        <v>460000</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="M19" s="15">
+        <v>130451</v>
       </c>
       <c r="N19" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G20"/>
       <c r="I20" s="4"/>
       <c r="J20" s="6" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="K20" s="5">
-        <v>1146400</v>
-      </c>
-      <c r="L20" s="16">
-        <v>10000000</v>
-      </c>
-      <c r="M20" s="17">
-        <v>1590317</v>
+        <v>460000</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="M20" s="15">
+        <v>143451</v>
       </c>
       <c r="N20" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G21"/>
       <c r="I21" s="4"/>
       <c r="J21" s="6" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="K21" s="5">
-        <v>1146400</v>
-      </c>
-      <c r="L21" s="16">
-        <v>5000000</v>
-      </c>
-      <c r="M21" s="17">
-        <v>659234</v>
+        <v>460000</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="M21" s="15">
+        <v>77038</v>
       </c>
       <c r="N21" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O21" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="K22" s="5">
-        <v>1146400</v>
-      </c>
-      <c r="L22" s="16">
-        <v>5000000</v>
-      </c>
-      <c r="M22" s="17">
-        <v>256168</v>
+        <v>460000</v>
+      </c>
+      <c r="L22" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="M22" s="15">
+        <v>82379</v>
       </c>
       <c r="N22" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O22" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I23" s="4"/>
       <c r="J23" s="6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="K23" s="5">
-        <v>1136500</v>
-      </c>
-      <c r="L23" s="16">
-        <v>5000000</v>
-      </c>
-      <c r="M23" s="17">
-        <v>549657</v>
+        <v>440800</v>
+      </c>
+      <c r="L23" s="14">
+        <v>500000</v>
+      </c>
+      <c r="M23" s="15">
+        <v>8832</v>
       </c>
       <c r="N23" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I24" s="4"/>
-      <c r="J24" s="6" t="s">
-        <v>13</v>
+      <c r="J24" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="K24" s="5">
-        <v>1124800</v>
-      </c>
-      <c r="L24" s="16">
-        <v>100000000</v>
-      </c>
-      <c r="M24" s="17">
-        <v>6552010</v>
+        <v>429800</v>
+      </c>
+      <c r="L24" s="14">
+        <v>500000</v>
+      </c>
+      <c r="M24" s="15">
+        <v>92026</v>
       </c>
       <c r="N24" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="O24" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I25" s="4"/>
-      <c r="J25" s="6" t="s">
-        <v>14</v>
+      <c r="J25" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="K25" s="5">
-        <v>1103200</v>
-      </c>
-      <c r="L25" s="16">
-        <v>10000000</v>
-      </c>
-      <c r="M25" s="17">
-        <v>529481</v>
+        <v>429700</v>
+      </c>
+      <c r="L25" s="14">
+        <v>500000</v>
+      </c>
+      <c r="M25" s="15">
+        <v>92787</v>
       </c>
       <c r="N25" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="O25" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="K26" s="5">
-        <v>1081600</v>
-      </c>
-      <c r="L26" s="16">
-        <v>100000000</v>
-      </c>
-      <c r="M26" s="17">
-        <v>47022528</v>
+        <v>421600</v>
+      </c>
+      <c r="L26" s="14">
+        <v>500000</v>
+      </c>
+      <c r="M26" s="15">
+        <v>7944</v>
       </c>
       <c r="N26" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="8"/>
+      <c r="J27" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="9">
+        <v>429800</v>
+      </c>
+      <c r="L27" s="21">
+        <v>100000</v>
+      </c>
+      <c r="M27" s="21">
+        <v>37732</v>
+      </c>
+      <c r="N27" s="29">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O26" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="8"/>
-      <c r="J27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1081600</v>
-      </c>
-      <c r="L27" s="23">
-        <v>100000000</v>
-      </c>
-      <c r="M27" s="23">
-        <v>23403656</v>
-      </c>
-      <c r="N27" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>8</v>
+      <c r="O27" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCE3219-06C0-4D0C-82F2-2C3447269A3B}">
-  <dimension ref="C1:J31"/>
+  <dimension ref="C1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4300,24 +4208,25 @@
     <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>100072472</v>
@@ -4325,11 +4234,11 @@
       <c r="E2" s="1">
         <v>20000</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="22">
         <v>1051105.8799999999</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -4337,7 +4246,7 @@
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>87989863</v>
@@ -4345,11 +4254,11 @@
       <c r="E3" s="1">
         <v>21466.67</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="22">
         <v>1043333.33</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>9835155</v>
@@ -4357,7 +4266,7 @@
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>79219668</v>
@@ -4365,11 +4274,11 @@
       <c r="E4" s="1">
         <v>43581.82</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <v>1012854.55</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>9962579</v>
@@ -4377,7 +4286,7 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>52603666</v>
@@ -4385,11 +4294,11 @@
       <c r="E5" s="1">
         <v>32623.33</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <v>1018576.67</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>10308841</v>
@@ -4397,7 +4306,7 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>34835983</v>
@@ -4405,11 +4314,11 @@
       <c r="E6" s="1">
         <v>24141.67</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <v>1034258.33</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <v>11445045</v>
@@ -4417,7 +4326,7 @@
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>12798545</v>
@@ -4425,11 +4334,11 @@
       <c r="E7" s="1">
         <v>39955.56</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <v>1044844.44</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>12798545</v>
@@ -4437,7 +4346,7 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>11445045</v>
@@ -4445,11 +4354,11 @@
       <c r="E8" s="1">
         <v>54200</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <v>902371.43</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>34835983</v>
@@ -4457,7 +4366,7 @@
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>10308841</v>
@@ -4465,11 +4374,11 @@
       <c r="E9" s="1">
         <v>22200</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>1029000</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J9">
         <v>52603666</v>
@@ -4477,7 +4386,7 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>9962579</v>
@@ -4485,11 +4394,11 @@
       <c r="E10" s="1">
         <v>31063.64</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>1031263.64</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J10">
         <v>79219668</v>
@@ -4497,7 +4406,7 @@
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>9835155</v>
@@ -4505,11 +4414,11 @@
       <c r="E11" s="1">
         <v>69000</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>995290.91</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <v>87989863</v>
@@ -4517,7 +4426,7 @@
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>6821242</v>
@@ -4525,11 +4434,11 @@
       <c r="E12" s="1">
         <v>20000</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>1060000</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J12">
         <v>100072472</v>
@@ -4537,7 +4446,7 @@
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>4637302</v>
@@ -4545,13 +4454,13 @@
       <c r="E13" s="1">
         <v>59900</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>976900</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>2442236</v>
@@ -4559,13 +4468,13 @@
       <c r="E14" s="1">
         <v>20000</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>995200</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>1650667</v>
@@ -4573,13 +4482,13 @@
       <c r="E15" s="1">
         <v>20000</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <v>1038400</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>1346250</v>
@@ -4587,13 +4496,13 @@
       <c r="E16" s="1">
         <v>24950</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>1033450</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>1168801</v>
@@ -4602,9 +4511,9 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>1042617</v>
@@ -4613,9 +4522,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>965675</v>
@@ -4624,9 +4533,9 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>725315</v>
@@ -4634,10 +4543,37 @@
       <c r="E20" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>679740</v>
@@ -4645,10 +4581,37 @@
       <c r="E21" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21">
+        <v>59800</v>
+      </c>
+      <c r="K21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L21">
+        <v>429800</v>
+      </c>
+      <c r="M21">
+        <v>100000</v>
+      </c>
+      <c r="N21">
+        <v>37732</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>678241</v>
@@ -4656,10 +4619,37 @@
       <c r="E22" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22">
+        <v>20000</v>
+      </c>
+      <c r="K22">
+        <v>4.3</v>
+      </c>
+      <c r="L22">
+        <v>440800</v>
+      </c>
+      <c r="M22">
+        <v>500000</v>
+      </c>
+      <c r="N22">
+        <v>8832</v>
+      </c>
+      <c r="O22" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>534519</v>
@@ -4667,10 +4657,37 @@
       <c r="E23" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23">
+        <v>59800</v>
+      </c>
+      <c r="K23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L23">
+        <v>429800</v>
+      </c>
+      <c r="M23">
+        <v>500000</v>
+      </c>
+      <c r="N23">
+        <v>92026</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>425128</v>
@@ -4678,10 +4695,37 @@
       <c r="E24" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24">
+        <v>59900</v>
+      </c>
+      <c r="K24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L24">
+        <v>429700</v>
+      </c>
+      <c r="M24">
+        <v>500000</v>
+      </c>
+      <c r="N24">
+        <v>92787</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>390214</v>
@@ -4689,10 +4733,37 @@
       <c r="E25" s="1">
         <v>59900</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25">
+        <v>20000</v>
+      </c>
+      <c r="K25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L25">
+        <v>421600</v>
+      </c>
+      <c r="M25">
+        <v>500000</v>
+      </c>
+      <c r="N25">
+        <v>7944</v>
+      </c>
+      <c r="O25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>126015</v>
@@ -4700,10 +4771,37 @@
       <c r="E26" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26">
+        <v>20000</v>
+      </c>
+      <c r="K26">
+        <v>4.5</v>
+      </c>
+      <c r="L26">
+        <v>460000</v>
+      </c>
+      <c r="M26">
+        <v>1000000</v>
+      </c>
+      <c r="N26">
+        <v>86250</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>78092</v>
@@ -4711,10 +4809,37 @@
       <c r="E27" s="1">
         <v>99800</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27">
+        <v>20000</v>
+      </c>
+      <c r="K27">
+        <v>4.5</v>
+      </c>
+      <c r="L27">
+        <v>460000</v>
+      </c>
+      <c r="M27">
+        <v>1000000</v>
+      </c>
+      <c r="N27">
+        <v>130451</v>
+      </c>
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>77038</v>
@@ -4722,10 +4847,37 @@
       <c r="E28" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28">
+        <v>20000</v>
+      </c>
+      <c r="K28">
+        <v>4.5</v>
+      </c>
+      <c r="L28">
+        <v>460000</v>
+      </c>
+      <c r="M28">
+        <v>1000000</v>
+      </c>
+      <c r="N28">
+        <v>143451</v>
+      </c>
+      <c r="O28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>73776</v>
@@ -4733,10 +4885,37 @@
       <c r="E29" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29">
+        <v>20000</v>
+      </c>
+      <c r="K29">
+        <v>4.5</v>
+      </c>
+      <c r="L29">
+        <v>460000</v>
+      </c>
+      <c r="M29">
+        <v>1000000</v>
+      </c>
+      <c r="N29">
+        <v>77038</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>35449</v>
@@ -4744,10 +4923,37 @@
       <c r="E30" s="1">
         <v>79800</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30">
+        <v>20000</v>
+      </c>
+      <c r="K30">
+        <v>4.5</v>
+      </c>
+      <c r="L30">
+        <v>460000</v>
+      </c>
+      <c r="M30">
+        <v>1000000</v>
+      </c>
+      <c r="N30">
+        <v>82379</v>
+      </c>
+      <c r="O30" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>2734</v>
@@ -4755,12 +4961,24 @@
       <c r="E31" s="1">
         <v>59800</v>
       </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H34" s="26"/>
+    </row>
+    <row r="41" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="J41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="J42" s="25"/>
+      <c r="L42" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:J12">
     <sortCondition ref="J3:J12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel_queries/V-velociraptor App data presentation.xlsx
+++ b/excel_queries/V-velociraptor App data presentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\nss-data-analytics\1 projects\app-trader-the-v-lookup-velociraptors\excel_queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77314282-7829-4FAF-844A-B96D8C0CB040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A37A6AF-B509-4476-B39F-9E62FDCEA4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71FCB696-DBD6-4B0C-AE3C-F319DF21172B}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="15576" windowHeight="11136" xr2:uid="{71FCB696-DBD6-4B0C-AE3C-F319DF21172B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -500,15 +500,19 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -522,10 +526,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3789,8 +3789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1A2B63-BB1F-4C1D-B580-E11D0211B936}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3821,9 +3821,9 @@
     </row>
     <row r="2" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="6"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3919,16 +3919,16 @@
     </row>
     <row r="16" spans="1:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A16" s="6"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="33"/>
       <c r="I16" s="16"/>
       <c r="J16" s="17" t="s">
         <v>8</v>
@@ -3940,13 +3940,13 @@
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="F17" s="32" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="F17" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="35"/>
       <c r="H17"/>
       <c r="I17" s="4"/>
       <c r="J17" s="10" t="s">
@@ -4100,7 +4100,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I24" s="4"/>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="26" t="s">
         <v>66</v>
       </c>
       <c r="K24" s="5">
@@ -4121,7 +4121,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I25" s="4"/>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="5">
@@ -4163,7 +4163,7 @@
     </row>
     <row r="27" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I27" s="8"/>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="27" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="9">
@@ -4175,7 +4175,7 @@
       <c r="M27" s="21">
         <v>37732</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="28">
         <v>4.5999999999999996</v>
       </c>
       <c r="O27" s="20" t="s">
@@ -4963,15 +4963,15 @@
       </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H34" s="26"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="J41" s="25"/>
-      <c r="L41" s="25"/>
+      <c r="J41" s="24"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="J42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="J42" s="24"/>
+      <c r="L42" s="24"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:J12">
